--- a/pages/Report_CalEst/dat_est/lastServiceMaintenance.xlsx
+++ b/pages/Report_CalEst/dat_est/lastServiceMaintenance.xlsx
@@ -4768,12 +4768,12 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO PREVENTIVO</t>
+          <t>MANTENIMIENTO CORRECTIVO</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -4783,17 +4783,17 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>ANDRES FELIPE GOMEZ</t>
+          <t>ANDRES FELIPE GOMEZ,ARIEL PORTOCARRERO</t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>Doris María González</t>
+          <t>Ariel Giovanni Portocarrero</t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t>SE VISITA ESTACION CON MOTIVO DE ACOMPAÑAMIENTO DE VERIFICACION DE EQUIPOS GAIACODE POR PARTE DEL DISTRIBUIDOR Y CONTRATISTA.</t>
+          <t>Se realiza el mantenimiento correctivo, por fallas en el sistema eléctrico se cambia protección.</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -8167,12 +8167,12 @@
       </c>
       <c r="G183" s="3" t="inlineStr">
         <is>
-          <t>Doris María González</t>
+          <t>Ariel Giovanni Portocarrero</t>
         </is>
       </c>
       <c r="H183" s="3" t="inlineStr">
         <is>
-          <t>SE DESCARGAN DATOS Y SE LIMPIA CASETA, SE AJUSTA VOLTAJE DC DE OFFSET SEL SENSOR, SE LAVA PANEL SOLAR, SE INTENTI INSTALAR EL SENSOR GAIACODE EN TIEMPO REAL, PERO POR LA COBERTUR 3G Y 4G DE LOS OPERADORES DE CELULAR, NO SE PUDO.</t>
+          <t>Se actualiza la instrumentación para el monitoreo de las aceleraciones. Se cambia acelerógrafo ETNA con Serie No. 128 por un acelerógrafo LUNITEK con Serie No. EB613-2311. Adicionalmente se instala sistema de comunicación por la red del operador de celular CLARO para él envió de la información en tiempo real y se descarga los datos almacenados del acelerógrafo.</t>
         </is>
       </c>
     </row>
@@ -8988,12 +8988,12 @@
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO CORRECTIVO</t>
+          <t>MANTENIMIENTO PREVENTIVO</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -9003,18 +9003,17 @@
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>JORGE ANDRES DE LA ROSA</t>
+          <t>SERGIO JARAMILLO</t>
         </is>
       </c>
       <c r="G203" s="3" t="inlineStr">
         <is>
-          <t>Doris María González</t>
+          <t>Sergio Fernando Jaramillo Colorado</t>
         </is>
       </c>
       <c r="H203" s="3" t="inlineStr">
         <is>
-          <t>SE REALIZA DESCARGA DE DATOS, SE LIMPIAN PANELES SOLARES Y ZONA ALREDEDOR DE LA ESTACION, SE ARREGLA
-ACOMETIDA ELECTRICA POR CORTES, SE INSTALA GABINETE METALICO Y SE CAMBIA VATERIA DE 12V.</t>
+          <t>Se realiza el cambio de acelerógrafo ETNA SN: 124 por el LUNITEK SN: EB616, se instala modem celular RUT240 SN: 1119032414, limpieza de los paneles y la caseta, instalación de bandeja para ubicación de equipos en rack, la estación queta transmitiendo en tiempo real</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15447,7 @@
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="D355" s="3" t="inlineStr">
@@ -15463,17 +15462,17 @@
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>JUAN MANUEL SOLANO</t>
+          <t>ARIEL PORTOCARRERO</t>
         </is>
       </c>
       <c r="G355" s="3" t="inlineStr">
         <is>
-          <t>Juan Manuel Solano Fino</t>
+          <t>Ariel Giovanni Portocarrero</t>
         </is>
       </c>
       <c r="H355" s="3" t="inlineStr">
         <is>
-          <t>Cambio de digitalizador Q330, revisión de conexiones de energía y comunicaciones, mantenimiento preventivo, aseo y poda de la estación.</t>
+          <t>: Se realiza mantenimiento correctivo por fallas del sistema de comunicación satelital. Se cambia BUC.</t>
         </is>
       </c>
     </row>
@@ -17532,7 +17531,7 @@
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="D404" s="3" t="inlineStr">
@@ -17542,22 +17541,27 @@
       </c>
       <c r="E404" s="3" t="inlineStr">
         <is>
-          <t>HIBRIDA</t>
+          <t>RSNC</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>JOHNNATAN FERNANDEZ,JUAN CARLOS LIZCANO</t>
+          <t>ANDRES FELIPE GOMEZ</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
         <is>
-          <t>Doris María González</t>
+          <t>Andrés Felipe Gómez</t>
         </is>
       </c>
       <c r="H404" s="3" t="inlineStr">
         <is>
-          <t>CAMBIO DE MODEM_161995388 POR EL 221534355, SE REPARO RECTIFICADOR EATON POR FALLAS, DESYERBE Y LIMPIEZA ESTACION, LAVADO DE PANELES SOLARES.</t>
+          <t xml:space="preserve">-	Se reubican 4 paneles solares de 230W al techo de una edificación contigua. En total quedan 6 en esta ubicación.
+-	Se evidencia fallo en el modem satelital, no inicia correctamente. Se retira modem con CB: 051995.
+-	Se instala modem celular para la transmisión de los datos con CB: 031631.
+-	Se retira rectificador EATON con CB: 021499 y se instala cargador de baterías genérico.
+-	Se evidencia fallo en la acometida eléctrica comercial. 
+</t>
         </is>
       </c>
     </row>
